--- a/DMSNewVSale_2025-12-18_18-24.xlsx
+++ b/DMSNewVSale_2025-12-18_18-24.xlsx
@@ -149,6 +149,18 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
     <t>DIPROSALIC LOTION 30 ML</t>
   </si>
   <si>
@@ -291,9 +303,6 @@
   </si>
   <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>3:0</t>
   </si>
   <si>
     <t>57.00</t>
@@ -1511,7 +1520,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1521,11 +1530,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>17</v>
@@ -1537,14 +1546,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1561,7 +1570,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1570,31 +1579,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1610,24 +1619,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1636,14 +1645,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1653,14 +1662,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1669,14 +1678,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1686,14 +1695,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1702,31 +1711,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1735,31 +1744,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1768,14 +1777,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1785,11 +1794,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>15</v>
@@ -1801,14 +1810,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1818,11 +1827,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>15</v>
@@ -1834,14 +1843,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1851,14 +1860,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1867,14 +1876,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1884,11 +1893,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>17</v>
@@ -1900,7 +1909,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1913,15 +1922,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>17</v>
@@ -1933,7 +1942,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1946,15 +1955,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>17</v>
@@ -1966,7 +1975,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1979,15 +1988,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1999,14 +2008,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2020,7 +2029,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -2032,28 +2041,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>17</v>
@@ -2072,13 +2081,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2105,7 +2114,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2115,14 +2124,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2131,14 +2140,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2155,7 +2164,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2171,7 +2180,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2221,7 +2230,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2237,7 +2246,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2254,7 +2263,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2270,7 +2279,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2303,7 +2312,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2313,11 +2322,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>17</v>
@@ -2329,14 +2338,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2369,7 +2378,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2386,7 +2395,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2402,7 +2411,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2435,7 +2444,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2452,7 +2461,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2468,7 +2477,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2501,7 +2510,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,7 +2543,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2567,7 +2576,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2577,14 +2586,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2593,14 +2602,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2610,14 +2619,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>152</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2626,14 +2635,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2643,14 +2652,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>155</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>15</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2666,7 +2675,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2699,7 +2708,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2716,7 +2725,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2732,21 +2741,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>17</v>
@@ -2758,28 +2767,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>17</v>
@@ -2791,31 +2800,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2837,7 +2846,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2845,10 +2854,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>120</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2857,20 +2866,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2878,10 +2887,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>17</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2890,28 +2899,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>17</v>
@@ -2923,28 +2932,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>17</v>
@@ -2956,28 +2965,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>17</v>
@@ -2989,68 +2998,101 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="62" ht="26.25" customHeight="1">
-      <c r="N62" s="13">
-        <v>3355.6900000000001</v>
-      </c>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>184</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>185</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>27</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>59</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>186</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" ht="25.5" customHeight="1">
+      <c r="N63" s="13">
+        <v>3511.6900000000001</v>
+      </c>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>187</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>188</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>189</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3334,10 +3376,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
